--- a/tests/pascal.xlsx
+++ b/tests/pascal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjb/Documents/repos/xlsx-util/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F9F407-9A48-B741-AF28-EE5DA2A043FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2997ED-0AFF-F548-A8A7-AB8EB19410E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{4FB15F7E-7FA2-0F42-8839-334BDF4C39A9}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,34 +515,40 @@
       <c r="G3">
         <v>6</v>
       </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>A3+100</f>
+        <f t="shared" ref="A4:F4" si="0">A3+100</f>
         <v>100</v>
       </c>
       <c r="B4">
-        <f>B3+100</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="C4">
-        <f>C3+100</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="D4">
-        <f>D3+100</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="E4">
-        <f>E3+100</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="F4">
-        <f>F3+100</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="G4">
         <v>106</v>
+      </c>
+      <c r="H4">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
